--- a/3-24四川国寿彭州无忧尊爱卡十年期/3-24 产品配置表格V1.0.xlsx
+++ b/3-24四川国寿彭州无忧尊爱卡十年期/3-24 产品配置表格V1.0.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>产品标识码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,43 +56,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>无忧尊爱卡十年期.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对症预约挂号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重大疾病绿色通道服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷医疗费用垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院后照护服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助预约挂号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>四川国寿彭州无忧尊爱卡十年期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无忧尊爱卡十年期.zip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对症预约挂号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重大疾病绿色通道服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快捷医疗费用垫付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线咨询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院后照护服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自助预约挂号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程利军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +484,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -524,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -539,7 +539,7 @@
         <v>4009120120</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -548,7 +548,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -559,7 +559,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -570,7 +570,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -581,7 +581,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -592,7 +592,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>4009120120</v>
@@ -605,7 +605,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
         <v>4009120120</v>
@@ -618,7 +618,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
         <v>4009120120</v>
